--- a/backend/account.xlsx
+++ b/backend/account.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\songm\code\ChatDemo\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AAFFF2-4F62-48D4-AF0E-0C6C2BCC4555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D42BE8-A6A3-4ECB-8F7C-81F5BB81B003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2898" yWindow="2898" windowWidth="17280" windowHeight="10074" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="268">
   <si>
     <t>invitecode</t>
   </si>
@@ -31,6 +31,9 @@
     <t>password</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
     <t>INV001</t>
   </si>
   <si>
@@ -61,15 +64,42 @@
     <t>INV004</t>
   </si>
   <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>pass4</t>
+  </si>
+  <si>
+    <t>temp@gmail.com</t>
+  </si>
+  <si>
     <t>INV005</t>
   </si>
   <si>
+    <t>temp1</t>
+  </si>
+  <si>
+    <t>212121</t>
+  </si>
+  <si>
+    <t>aaa@qqq.com</t>
+  </si>
+  <si>
     <t>INV006</t>
   </si>
   <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>INV007</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>INV008</t>
   </si>
   <si>
@@ -107,6 +137,693 @@
   </si>
   <si>
     <t>INV020</t>
+  </si>
+  <si>
+    <t>INV021</t>
+  </si>
+  <si>
+    <t>INV022</t>
+  </si>
+  <si>
+    <t>INV023</t>
+  </si>
+  <si>
+    <t>INV024</t>
+  </si>
+  <si>
+    <t>INV025</t>
+  </si>
+  <si>
+    <t>INV026</t>
+  </si>
+  <si>
+    <t>INV027</t>
+  </si>
+  <si>
+    <t>INV028</t>
+  </si>
+  <si>
+    <t>INV029</t>
+  </si>
+  <si>
+    <t>INV030</t>
+  </si>
+  <si>
+    <t>INV031</t>
+  </si>
+  <si>
+    <t>INV032</t>
+  </si>
+  <si>
+    <t>INV033</t>
+  </si>
+  <si>
+    <t>INV034</t>
+  </si>
+  <si>
+    <t>INV035</t>
+  </si>
+  <si>
+    <t>INV036</t>
+  </si>
+  <si>
+    <t>INV037</t>
+  </si>
+  <si>
+    <t>INV038</t>
+  </si>
+  <si>
+    <t>INV039</t>
+  </si>
+  <si>
+    <t>INV040</t>
+  </si>
+  <si>
+    <t>INV041</t>
+  </si>
+  <si>
+    <t>INV042</t>
+  </si>
+  <si>
+    <t>INV043</t>
+  </si>
+  <si>
+    <t>INV044</t>
+  </si>
+  <si>
+    <t>INV045</t>
+  </si>
+  <si>
+    <t>INV046</t>
+  </si>
+  <si>
+    <t>INV047</t>
+  </si>
+  <si>
+    <t>INV048</t>
+  </si>
+  <si>
+    <t>INV049</t>
+  </si>
+  <si>
+    <t>INV050</t>
+  </si>
+  <si>
+    <t>INV051</t>
+  </si>
+  <si>
+    <t>INV052</t>
+  </si>
+  <si>
+    <t>INV053</t>
+  </si>
+  <si>
+    <t>INV054</t>
+  </si>
+  <si>
+    <t>INV055</t>
+  </si>
+  <si>
+    <t>INV056</t>
+  </si>
+  <si>
+    <t>INV057</t>
+  </si>
+  <si>
+    <t>INV058</t>
+  </si>
+  <si>
+    <t>INV059</t>
+  </si>
+  <si>
+    <t>INV060</t>
+  </si>
+  <si>
+    <t>INV061</t>
+  </si>
+  <si>
+    <t>INV062</t>
+  </si>
+  <si>
+    <t>INV063</t>
+  </si>
+  <si>
+    <t>INV064</t>
+  </si>
+  <si>
+    <t>INV065</t>
+  </si>
+  <si>
+    <t>INV066</t>
+  </si>
+  <si>
+    <t>INV067</t>
+  </si>
+  <si>
+    <t>INV068</t>
+  </si>
+  <si>
+    <t>INV069</t>
+  </si>
+  <si>
+    <t>INV070</t>
+  </si>
+  <si>
+    <t>INV071</t>
+  </si>
+  <si>
+    <t>INV072</t>
+  </si>
+  <si>
+    <t>INV073</t>
+  </si>
+  <si>
+    <t>INV074</t>
+  </si>
+  <si>
+    <t>INV075</t>
+  </si>
+  <si>
+    <t>INV076</t>
+  </si>
+  <si>
+    <t>INV077</t>
+  </si>
+  <si>
+    <t>INV078</t>
+  </si>
+  <si>
+    <t>INV079</t>
+  </si>
+  <si>
+    <t>INV080</t>
+  </si>
+  <si>
+    <t>INV081</t>
+  </si>
+  <si>
+    <t>INV082</t>
+  </si>
+  <si>
+    <t>INV083</t>
+  </si>
+  <si>
+    <t>INV084</t>
+  </si>
+  <si>
+    <t>INV085</t>
+  </si>
+  <si>
+    <t>INV086</t>
+  </si>
+  <si>
+    <t>INV087</t>
+  </si>
+  <si>
+    <t>INV088</t>
+  </si>
+  <si>
+    <t>INV089</t>
+  </si>
+  <si>
+    <t>INV090</t>
+  </si>
+  <si>
+    <t>INV091</t>
+  </si>
+  <si>
+    <t>INV092</t>
+  </si>
+  <si>
+    <t>INV093</t>
+  </si>
+  <si>
+    <t>INV094</t>
+  </si>
+  <si>
+    <t>INV095</t>
+  </si>
+  <si>
+    <t>INV096</t>
+  </si>
+  <si>
+    <t>INV097</t>
+  </si>
+  <si>
+    <t>INV098</t>
+  </si>
+  <si>
+    <t>INV099</t>
+  </si>
+  <si>
+    <t>INV100</t>
+  </si>
+  <si>
+    <t>INV101</t>
+  </si>
+  <si>
+    <t>INV102</t>
+  </si>
+  <si>
+    <t>INV103</t>
+  </si>
+  <si>
+    <t>INV104</t>
+  </si>
+  <si>
+    <t>INV105</t>
+  </si>
+  <si>
+    <t>INV106</t>
+  </si>
+  <si>
+    <t>INV107</t>
+  </si>
+  <si>
+    <t>INV108</t>
+  </si>
+  <si>
+    <t>INV109</t>
+  </si>
+  <si>
+    <t>INV110</t>
+  </si>
+  <si>
+    <t>INV111</t>
+  </si>
+  <si>
+    <t>INV112</t>
+  </si>
+  <si>
+    <t>INV113</t>
+  </si>
+  <si>
+    <t>INV114</t>
+  </si>
+  <si>
+    <t>INV115</t>
+  </si>
+  <si>
+    <t>INV116</t>
+  </si>
+  <si>
+    <t>INV117</t>
+  </si>
+  <si>
+    <t>INV118</t>
+  </si>
+  <si>
+    <t>INV119</t>
+  </si>
+  <si>
+    <t>INV120</t>
+  </si>
+  <si>
+    <t>INV121</t>
+  </si>
+  <si>
+    <t>INV122</t>
+  </si>
+  <si>
+    <t>INV123</t>
+  </si>
+  <si>
+    <t>INV124</t>
+  </si>
+  <si>
+    <t>INV125</t>
+  </si>
+  <si>
+    <t>INV126</t>
+  </si>
+  <si>
+    <t>INV127</t>
+  </si>
+  <si>
+    <t>INV128</t>
+  </si>
+  <si>
+    <t>INV129</t>
+  </si>
+  <si>
+    <t>INV130</t>
+  </si>
+  <si>
+    <t>INV131</t>
+  </si>
+  <si>
+    <t>INV132</t>
+  </si>
+  <si>
+    <t>INV133</t>
+  </si>
+  <si>
+    <t>INV134</t>
+  </si>
+  <si>
+    <t>INV135</t>
+  </si>
+  <si>
+    <t>INV136</t>
+  </si>
+  <si>
+    <t>INV137</t>
+  </si>
+  <si>
+    <t>INV138</t>
+  </si>
+  <si>
+    <t>INV139</t>
+  </si>
+  <si>
+    <t>INV140</t>
+  </si>
+  <si>
+    <t>INV141</t>
+  </si>
+  <si>
+    <t>INV142</t>
+  </si>
+  <si>
+    <t>INV143</t>
+  </si>
+  <si>
+    <t>INV144</t>
+  </si>
+  <si>
+    <t>INV145</t>
+  </si>
+  <si>
+    <t>INV146</t>
+  </si>
+  <si>
+    <t>INV147</t>
+  </si>
+  <si>
+    <t>INV148</t>
+  </si>
+  <si>
+    <t>INV149</t>
+  </si>
+  <si>
+    <t>INV150</t>
+  </si>
+  <si>
+    <t>INV151</t>
+  </si>
+  <si>
+    <t>INV152</t>
+  </si>
+  <si>
+    <t>INV153</t>
+  </si>
+  <si>
+    <t>INV154</t>
+  </si>
+  <si>
+    <t>INV155</t>
+  </si>
+  <si>
+    <t>INV156</t>
+  </si>
+  <si>
+    <t>INV157</t>
+  </si>
+  <si>
+    <t>INV158</t>
+  </si>
+  <si>
+    <t>INV159</t>
+  </si>
+  <si>
+    <t>INV160</t>
+  </si>
+  <si>
+    <t>INV161</t>
+  </si>
+  <si>
+    <t>INV162</t>
+  </si>
+  <si>
+    <t>INV163</t>
+  </si>
+  <si>
+    <t>INV164</t>
+  </si>
+  <si>
+    <t>INV165</t>
+  </si>
+  <si>
+    <t>INV166</t>
+  </si>
+  <si>
+    <t>INV167</t>
+  </si>
+  <si>
+    <t>INV168</t>
+  </si>
+  <si>
+    <t>INV169</t>
+  </si>
+  <si>
+    <t>INV170</t>
+  </si>
+  <si>
+    <t>INV171</t>
+  </si>
+  <si>
+    <t>INV172</t>
+  </si>
+  <si>
+    <t>INV173</t>
+  </si>
+  <si>
+    <t>INV174</t>
+  </si>
+  <si>
+    <t>INV175</t>
+  </si>
+  <si>
+    <t>INV176</t>
+  </si>
+  <si>
+    <t>INV177</t>
+  </si>
+  <si>
+    <t>INV178</t>
+  </si>
+  <si>
+    <t>INV179</t>
+  </si>
+  <si>
+    <t>INV180</t>
+  </si>
+  <si>
+    <t>INV181</t>
+  </si>
+  <si>
+    <t>INV182</t>
+  </si>
+  <si>
+    <t>INV183</t>
+  </si>
+  <si>
+    <t>INV184</t>
+  </si>
+  <si>
+    <t>INV185</t>
+  </si>
+  <si>
+    <t>INV186</t>
+  </si>
+  <si>
+    <t>INV187</t>
+  </si>
+  <si>
+    <t>INV188</t>
+  </si>
+  <si>
+    <t>INV189</t>
+  </si>
+  <si>
+    <t>INV190</t>
+  </si>
+  <si>
+    <t>INV191</t>
+  </si>
+  <si>
+    <t>INV192</t>
+  </si>
+  <si>
+    <t>INV193</t>
+  </si>
+  <si>
+    <t>INV194</t>
+  </si>
+  <si>
+    <t>INV195</t>
+  </si>
+  <si>
+    <t>INV196</t>
+  </si>
+  <si>
+    <t>INV197</t>
+  </si>
+  <si>
+    <t>INV198</t>
+  </si>
+  <si>
+    <t>INV199</t>
+  </si>
+  <si>
+    <t>INV200</t>
+  </si>
+  <si>
+    <t>INV201</t>
+  </si>
+  <si>
+    <t>INV202</t>
+  </si>
+  <si>
+    <t>INV203</t>
+  </si>
+  <si>
+    <t>INV204</t>
+  </si>
+  <si>
+    <t>INV205</t>
+  </si>
+  <si>
+    <t>INV206</t>
+  </si>
+  <si>
+    <t>INV207</t>
+  </si>
+  <si>
+    <t>INV208</t>
+  </si>
+  <si>
+    <t>INV209</t>
+  </si>
+  <si>
+    <t>INV210</t>
+  </si>
+  <si>
+    <t>INV211</t>
+  </si>
+  <si>
+    <t>INV212</t>
+  </si>
+  <si>
+    <t>INV213</t>
+  </si>
+  <si>
+    <t>INV214</t>
+  </si>
+  <si>
+    <t>INV215</t>
+  </si>
+  <si>
+    <t>INV216</t>
+  </si>
+  <si>
+    <t>INV217</t>
+  </si>
+  <si>
+    <t>INV218</t>
+  </si>
+  <si>
+    <t>INV219</t>
+  </si>
+  <si>
+    <t>INV220</t>
+  </si>
+  <si>
+    <t>INV221</t>
+  </si>
+  <si>
+    <t>INV222</t>
+  </si>
+  <si>
+    <t>INV223</t>
+  </si>
+  <si>
+    <t>INV224</t>
+  </si>
+  <si>
+    <t>INV225</t>
+  </si>
+  <si>
+    <t>INV226</t>
+  </si>
+  <si>
+    <t>INV227</t>
+  </si>
+  <si>
+    <t>INV228</t>
+  </si>
+  <si>
+    <t>INV229</t>
+  </si>
+  <si>
+    <t>INV230</t>
+  </si>
+  <si>
+    <t>INV231</t>
+  </si>
+  <si>
+    <t>INV232</t>
+  </si>
+  <si>
+    <t>INV233</t>
+  </si>
+  <si>
+    <t>INV234</t>
+  </si>
+  <si>
+    <t>INV235</t>
+  </si>
+  <si>
+    <t>INV236</t>
+  </si>
+  <si>
+    <t>INV237</t>
+  </si>
+  <si>
+    <t>INV238</t>
+  </si>
+  <si>
+    <t>INV239</t>
+  </si>
+  <si>
+    <t>INV240</t>
+  </si>
+  <si>
+    <t>INV241</t>
+  </si>
+  <si>
+    <t>INV242</t>
+  </si>
+  <si>
+    <t>INV243</t>
+  </si>
+  <si>
+    <t>INV244</t>
+  </si>
+  <si>
+    <t>INV245</t>
+  </si>
+  <si>
+    <t>INV246</t>
+  </si>
+  <si>
+    <t>INV247</t>
+  </si>
+  <si>
+    <t>INV248</t>
+  </si>
+  <si>
+    <t>INV249</t>
   </si>
 </sst>
 </file>
@@ -477,15 +1194,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="L239" sqref="L239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,123 +1212,1307 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A156" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A158" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A161" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A163" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A173" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A174" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A176" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A178" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A179" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A180" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A181" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A182" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A183" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A184" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A185" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A186" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A187" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A188" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A189" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A190" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A191" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A192" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A193" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A194" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A195" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A196" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A197" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A198" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A199" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A200" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A201" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A202" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A203" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A204" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A205" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A206" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A207" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A208" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A209" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A210" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A211" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A212" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A213" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A214" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A215" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A216" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A217" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A218" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A219" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A220" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A221" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A222" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A223" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A224" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A225" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A226" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A227" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A228" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A229" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A230" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A231" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A232" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A233" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A234" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A235" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A236" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A237" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A238" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A239" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A240" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A241" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A242" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A243" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A244" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A245" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A246" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A247" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A248" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A249" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A250" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/backend/account.xlsx
+++ b/backend/account.xlsx
@@ -482,17 +482,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>pass1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>zzz</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>zhangrongkai2000@163.com</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>cof7Wy</t>
+          <t>907f4U</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45106.57542824074</v>
+        <v>45108.39238425926</v>
       </c>
     </row>
     <row r="3">
@@ -637,9 +641,21 @@
           <t>INV008</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>zrkzrl</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>zhangrongkai2000@163.com</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
@@ -649,9 +665,21 @@
           <t>INV009</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>asdadsad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>aaaa</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
     </row>

--- a/backend/account.xlsx
+++ b/backend/account.xlsx
@@ -689,9 +689,21 @@
           <t>INV010</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>zzzz</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>newnew</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
@@ -701,9 +713,21 @@
           <t>INV011</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>user1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>alibaba</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>asddddd</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
@@ -713,9 +737,21 @@
           <t>INV012</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ali</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>alibaba</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>asddddd</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
@@ -725,9 +761,21 @@
           <t>INV013</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ali</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>zzzz</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>asdsdsd</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -737,11 +785,29 @@
           <t>INV014</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ali2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>zzz</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>asdsdsd</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6fg14t</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>45108.5562037037</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
